--- a/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-47,46%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,02%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,43; 1,08</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,9</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 0,19</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 128,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,93; 1,36</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 1,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 1,25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-80,17; 229,4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,78; 1,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 4,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,11</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 1,45</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-40,55; 882,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,38; 407,35</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,87; 2,51</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 2,3</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,44</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 1,84</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-79,96; 424,99</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-59,56; 329,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1247,06</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 1,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 4,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,71%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-0,97; 1,54</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 2,2</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 0,21</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 1,03</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,41; 168,32</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>222,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,97%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 2,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 2,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 2,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,6; 735,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,48; 1280,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,22; 718,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,03; 681,37</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-2,06; 0,39</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,77</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 1,46</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 0,74</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-91,01; 73,59</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,14; 105,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,29; —</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 0,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,54; 77,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 147,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; 98,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; 125,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-70,02%</t>
+          <t>-74,48%</t>
         </is>
       </c>
     </row>
@@ -673,27 +673,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-0,64; 5,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,9</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 0,18</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 0,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 0,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,94; 617,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,14%</t>
+          <t>78,42%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,25</t>
+          <t>-0,62; 1,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,45</t>
+          <t>-1,76; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,38; 407,35</t>
+          <t>-78,42; 362,99</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>-26,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,3</t>
+          <t>-3,0; 1,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,84</t>
+          <t>-1,82; 1,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 329,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1247,06</t>
+          <t>-100,0; 767,69</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-31,71%</t>
+          <t>-31,0%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,03</t>
+          <t>-2,67; 1,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-88,41; 168,32</t>
+          <t>-88,94; 172,82</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>151,97%</t>
+          <t>124,82%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,45</t>
+          <t>-0,59; 2,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 681,37</t>
+          <t>-32,78; 558,81</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>32,64%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,74</t>
+          <t>-0,48; 0,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-89,29; —</t>
+          <t>-82,56; —</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,72</t>
+          <t>-0,34; 0,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 125,69</t>
+          <t>-29,94; 121,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,08</t>
+          <t>-2,07; 1,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,0</t>
+          <t>-0,65; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,9</t>
+          <t>-4,92; 0,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 0,18</t>
+          <t>-7,32; 0,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 617,29</t>
+          <t>-46,41; 647,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 128,45</t>
+          <t>-100,0; 116,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,36</t>
+          <t>-1,79; 1,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,03</t>
+          <t>-1,5; 1,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,34</t>
+          <t>-0,63; 1,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,17; 229,4</t>
+          <t>-77,79; 263,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,0</t>
+          <t>-1,81; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,6</t>
+          <t>-0,47; 4,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,11</t>
+          <t>-0,62; 1,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,4</t>
+          <t>-1,97; 1,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 882,74</t>
+          <t>-40,08; 925,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,42; 362,99</t>
+          <t>-81,72; 423,83</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,51</t>
+          <t>-1,76; 2,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,09</t>
+          <t>-2,88; 1,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,44</t>
+          <t>0,59; 3,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,3</t>
+          <t>-1,9; 1,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,96; 424,99</t>
+          <t>-78,82; 520,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 767,69</t>
+          <t>-99,22; 421,8</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,18</t>
+          <t>-3,79; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,74</t>
+          <t>0,57; 4,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,54</t>
+          <t>-0,98; 1,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,2</t>
+          <t>-1,61; 2,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,21</t>
+          <t>-4,56; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,04</t>
+          <t>-2,55; 1,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-88,94; 172,82</t>
+          <t>-85,13; 310,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,51</t>
+          <t>-0,62; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,4</t>
+          <t>0,06; 2,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,39</t>
+          <t>-0,98; 2,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,27</t>
+          <t>-0,42; 2,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 735,26</t>
+          <t>-69,07; 537,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-52,48; 1280,46</t>
+          <t>-34,23; 1204,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 718,83</t>
+          <t>-71,21; 488,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 558,81</t>
+          <t>-25,77; 672,96</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,39</t>
+          <t>-2,06; 0,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,77</t>
+          <t>-1,07; 0,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,46</t>
+          <t>-1,66; 1,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,89</t>
+          <t>-0,47; 0,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-91,01; 73,59</t>
+          <t>-91,11; 78,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 576,22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-55,86; 129,39</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-57,14; 105,46</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-82,56; —</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,59</t>
+          <t>-0,65; 0,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,05</t>
+          <t>-0,15; 1,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>-0,44; 0,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,7</t>
+          <t>-0,38; 0,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 77,61</t>
+          <t>-45,7; 69,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 147,41</t>
+          <t>-13,4; 143,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 98,4</t>
+          <t>-30,54; 85,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 121,99</t>
+          <t>-31,39; 116,68</t>
         </is>
       </c>
     </row>
